--- a/数据整理/stocks/港股/00175-吉利汽车.xlsx
+++ b/数据整理/stocks/港股/00175-吉利汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4355,4 +4356,1542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6723</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5216</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159803</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00175-吉利汽车.xlsx
+++ b/数据整理/stocks/港股/00175-吉利汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5894,4 +5895,2638 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>341.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.3717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>200.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.1560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.5412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>117.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4793</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.2868</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.8598</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.6175</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1843</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7958</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5312</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3931</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1924</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1609</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9042</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8940</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8538</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8115</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6518</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5546</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4043</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00175-吉利汽车.xlsx
+++ b/数据整理/stocks/港股/00175-吉利汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8508,7 +8509,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>81.25</t>
@@ -8524,6 +8524,106 @@
       </c>
       <c r="H69" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.85</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00175-吉利汽车.xlsx
+++ b/数据整理/stocks/港股/00175-吉利汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8537,7 +8538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8548,17 +8549,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8568,14 +8589,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91.62</v>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>196.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8584,14 +8627,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.2</v>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8600,14 +8665,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.27</v>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8616,13 +8703,2196 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4554</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2887</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8707</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7985</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6970</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6313</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6233</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5572</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5276</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4572</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>91.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>79</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>39.85</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00175-吉利汽车.xlsx
+++ b/数据整理/stocks/港股/00175-吉利汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10791,7 +10792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10802,17 +10803,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10822,14 +10843,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.86</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -10838,14 +10881,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>91.62</v>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -10854,14 +10919,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.2</v>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -10870,14 +10957,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.27</v>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -10886,13 +10995,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2270</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>91.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>79</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>39.85</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00175-吉利汽车.xlsx
+++ b/数据整理/stocks/港股/00175-吉利汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11494,7 +11495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11505,17 +11506,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11525,14 +11546,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.01</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>324.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.8581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -11541,14 +11584,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.86</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>164.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6377</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -11557,14 +11622,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91.62</v>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -11573,14 +11660,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>49.2</v>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3894</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -11589,14 +11698,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.27</v>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -11605,13 +11736,1703 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>104.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2764</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9859</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6643</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5576</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4625</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>79</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>39.85</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00175-吉利汽车.xlsx
+++ b/数据整理/stocks/港股/00175-吉利汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>42.43</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>16.01</v>
+        <v>42.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>56.86</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>91.62</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>49.2</v>
+        <v>91.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>10.27</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>79</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>39.85</v>
       </c>
     </row>
@@ -600,6 +617,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6955</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2403,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3105,7 +4164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5358,7 +6417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7991,7 +9050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9529,7 +10588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10383,7 +11442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00175-吉利汽车.xlsx
+++ b/数据整理/stocks/港股/00175-吉利汽车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>9.17</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>42.43</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>16.01</v>
+        <v>42.43</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>91.62</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>49.2</v>
+        <v>91.62</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>10.27</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3088 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>79</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>39.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>105.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2874</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1545</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1325</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1213</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8846</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7902</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7852</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6729</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5800</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4939</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4874</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159803</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3692,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8707</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015797</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015796</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1658,7 +5891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3462,7 +7695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4164,7 +8397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6417,7 +10650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9050,7 +13283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10588,7 +14821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11440,3062 +15673,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501054</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>128.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.8253</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010213</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧互联网先锋混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>105.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.9082</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>900003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信证券臻选价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>66.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.5521</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009683</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.9577</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3294</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.3294</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.3037</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010385</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安汇嘉精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>76.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>37.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2874</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>24.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.2559</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>900079</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信证券臻选价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1545</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006529</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>37.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1325</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009147</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.1213</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010116</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>29.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>73.47</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.1159</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>377016</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>上投摩根亚太优势混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>43.31</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.9572</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009715</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.32</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.8846</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>14.57</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8145</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010214</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧互联网先锋混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16.92</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.55</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7902</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.7852</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501081</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中欧科创主题3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>16.95</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.6729</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009347</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>19.94</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.6401</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>871003</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发资管价值增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>13.68</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.5800</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4939</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>12.34</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4874</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005974</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3346</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>900152</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3207</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009885</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>新华景气行业混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>14.42</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>46.37</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2668</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008962</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>建信科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2644</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2312</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009684</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2281</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2229</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006122</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华安低碳生活混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2227</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006530</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1601</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006614</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1520</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1470</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010386</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华安汇嘉精选混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>37.82</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1300</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>900009</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中信证券成长动力混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1267</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>900059</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中信证券成长动力混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1051</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009606</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1004</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>501311</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0930</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>010117</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>民生加银新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>73.47</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0803</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>003243</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>003244</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>003245</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>007277</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>恒生前海消费升级混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0684</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005351</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>汇添富行业整合主题混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0671</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0621</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0524</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>008861</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>009348</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0289</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006890</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>上投摩根领先优选混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>900022</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>900052</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>009607</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>011032</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>009886</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>新华景气行业混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>46.37</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>159803</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>易方达中证浙江新动能ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>96.88</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>010093</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>006778</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>513900</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>华安CES港股通精选100ETF</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>96.00</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>001972</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>86.25</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>006779</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>